--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R01-PC06\Desktop\me\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R01-PC06\Desktop\tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="538">
   <si>
     <t>ID</t>
   </si>
@@ -1638,135 +1638,6 @@
   </si>
   <si>
     <t>Marleez</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>43</t>
   </si>
 </sst>
 </file>
@@ -2219,7 +2090,7 @@
   <dimension ref="A1:Z268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z268"/>
+      <selection activeCell="AA196" sqref="AA196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17459,26 +17330,14 @@
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A198" s="20">
-        <v>1002</v>
-      </c>
-      <c r="B198" s="18">
-        <v>1</v>
-      </c>
+      <c r="A198" s="20"/>
+      <c r="B198" s="18"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
-      <c r="E198" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F198" s="6">
-        <v>2</v>
-      </c>
-      <c r="G198" s="8">
-        <v>1238.5835999999999</v>
-      </c>
-      <c r="H198" s="16">
-        <v>400865.91599999997</v>
-      </c>
+      <c r="E198" s="4"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="16"/>
       <c r="I198" s="16"/>
       <c r="J198" s="16"/>
       <c r="K198" s="5"/>
@@ -17499,26 +17358,14 @@
       <c r="Z198" s="4"/>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A199" s="20">
-        <v>1003</v>
-      </c>
-      <c r="B199" s="18">
-        <v>1</v>
-      </c>
+      <c r="A199" s="20"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
-      <c r="E199" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F199" s="6">
-        <v>3</v>
-      </c>
-      <c r="G199" s="8">
-        <v>713.71079999999995</v>
-      </c>
-      <c r="H199" s="16">
-        <v>217787.71039999998</v>
-      </c>
+      <c r="E199" s="4"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="16"/>
       <c r="I199" s="16"/>
       <c r="J199" s="16"/>
       <c r="K199" s="5"/>
@@ -17539,26 +17386,14 @@
       <c r="Z199" s="4"/>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A200" s="20">
-        <v>1008</v>
-      </c>
-      <c r="B200" s="18">
-        <v>1</v>
-      </c>
+      <c r="A200" s="20"/>
+      <c r="B200" s="18"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
-      <c r="E200" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F200" s="6">
-        <v>8</v>
-      </c>
-      <c r="G200" s="8">
-        <v>763.20680000000004</v>
-      </c>
-      <c r="H200" s="16">
-        <v>219630.90120000002</v>
-      </c>
+      <c r="E200" s="4"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="16"/>
       <c r="I200" s="16"/>
       <c r="J200" s="16"/>
       <c r="K200" s="5"/>
@@ -17579,26 +17414,14 @@
       <c r="Z200" s="4"/>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A201" s="20">
-        <v>1019</v>
-      </c>
-      <c r="B201" s="18">
-        <v>1</v>
-      </c>
+      <c r="A201" s="20"/>
+      <c r="B201" s="18"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
-      <c r="E201" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="G201" s="8">
-        <v>798.49959999999987</v>
-      </c>
-      <c r="H201" s="16">
-        <v>244624.87199999997</v>
-      </c>
+      <c r="E201" s="4"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="16"/>
       <c r="I201" s="16"/>
       <c r="J201" s="16"/>
       <c r="K201" s="5"/>
@@ -17619,26 +17442,14 @@
       <c r="Z201" s="4"/>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A202" s="20">
-        <v>1042</v>
-      </c>
-      <c r="B202" s="18">
-        <v>1</v>
-      </c>
+      <c r="A202" s="20"/>
+      <c r="B202" s="18"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
-      <c r="E202" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="G202" s="8">
-        <v>618.37720000000002</v>
-      </c>
-      <c r="H202" s="16">
-        <v>163162.8792</v>
-      </c>
+      <c r="E202" s="4"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="8"/>
+      <c r="H202" s="16"/>
       <c r="I202" s="16"/>
       <c r="J202" s="16"/>
       <c r="K202" s="5"/>
@@ -17659,26 +17470,14 @@
       <c r="Z202" s="4"/>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A203" s="20">
-        <v>1047</v>
-      </c>
-      <c r="B203" s="18">
-        <v>1</v>
-      </c>
+      <c r="A203" s="20"/>
+      <c r="B203" s="18"/>
       <c r="C203" s="5"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="G203" s="8">
-        <v>1479.7152000000001</v>
-      </c>
-      <c r="H203" s="16">
-        <v>401302.81920000003</v>
-      </c>
+      <c r="E203" s="4"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="16"/>
       <c r="I203" s="16"/>
       <c r="J203" s="16"/>
       <c r="K203" s="5"/>
@@ -17699,26 +17498,14 @@
       <c r="Z203" s="4"/>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A204" s="20">
-        <v>2045</v>
-      </c>
-      <c r="B204" s="18">
-        <v>2</v>
-      </c>
+      <c r="A204" s="20"/>
+      <c r="B204" s="18"/>
       <c r="C204" s="5"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="G204" s="8">
-        <v>1603.9931999999999</v>
-      </c>
-      <c r="H204" s="16">
-        <v>538271.73560000001</v>
-      </c>
+      <c r="E204" s="4"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="8"/>
+      <c r="H204" s="16"/>
       <c r="I204" s="16"/>
       <c r="J204" s="16"/>
       <c r="K204" s="5"/>
@@ -17739,26 +17526,14 @@
       <c r="Z204" s="4"/>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A205" s="20">
-        <v>2052</v>
-      </c>
-      <c r="B205" s="18">
-        <v>2</v>
-      </c>
+      <c r="A205" s="20"/>
+      <c r="B205" s="18"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
-      <c r="E205" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="G205" s="8">
-        <v>1615.2912000000001</v>
-      </c>
-      <c r="H205" s="16">
-        <v>461464.99200000003</v>
-      </c>
+      <c r="E205" s="4"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="8"/>
+      <c r="H205" s="16"/>
       <c r="I205" s="16"/>
       <c r="J205" s="16"/>
       <c r="K205" s="5"/>
@@ -17779,26 +17554,14 @@
       <c r="Z205" s="4"/>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A206" s="20">
-        <v>2053</v>
-      </c>
-      <c r="B206" s="18">
-        <v>2</v>
-      </c>
+      <c r="A206" s="20"/>
+      <c r="B206" s="18"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
-      <c r="E206" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="G206" s="8">
-        <v>784.1887999999999</v>
-      </c>
-      <c r="H206" s="16">
-        <v>275812.49280000001</v>
-      </c>
+      <c r="E206" s="4"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="8"/>
+      <c r="H206" s="16"/>
       <c r="I206" s="16"/>
       <c r="J206" s="16"/>
       <c r="K206" s="5"/>
@@ -17819,26 +17582,14 @@
       <c r="Z206" s="4"/>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A207" s="20">
-        <v>3007</v>
-      </c>
-      <c r="B207" s="18">
-        <v>3</v>
-      </c>
+      <c r="A207" s="20"/>
+      <c r="B207" s="18"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
-      <c r="E207" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F207" s="6">
-        <v>7</v>
-      </c>
-      <c r="G207" s="8">
-        <v>720.38200000000006</v>
-      </c>
-      <c r="H207" s="16">
-        <v>216552.71200000003</v>
-      </c>
+      <c r="E207" s="4"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="8"/>
+      <c r="H207" s="16"/>
       <c r="I207" s="16"/>
       <c r="J207" s="16"/>
       <c r="K207" s="5"/>
@@ -17859,26 +17610,14 @@
       <c r="Z207" s="4"/>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A208" s="20">
-        <v>3024</v>
-      </c>
-      <c r="B208" s="18">
-        <v>3</v>
-      </c>
+      <c r="A208" s="20"/>
+      <c r="B208" s="18"/>
       <c r="C208" s="5"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G208" s="8">
-        <v>1596.3536000000001</v>
-      </c>
-      <c r="H208" s="16">
-        <v>495570.44480000006</v>
-      </c>
+      <c r="E208" s="4"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="16"/>
       <c r="I208" s="16"/>
       <c r="J208" s="16"/>
       <c r="K208" s="5"/>
@@ -17899,26 +17638,14 @@
       <c r="Z208" s="4"/>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A209" s="20">
-        <v>3029</v>
-      </c>
-      <c r="B209" s="18">
-        <v>3</v>
-      </c>
+      <c r="A209" s="20"/>
+      <c r="B209" s="18"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
-      <c r="E209" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="G209" s="8">
-        <v>1121.9451999999999</v>
-      </c>
-      <c r="H209" s="16">
-        <v>388656.80639999994</v>
-      </c>
+      <c r="E209" s="4"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="16"/>
       <c r="I209" s="16"/>
       <c r="J209" s="16"/>
       <c r="K209" s="5"/>
@@ -17939,26 +17666,14 @@
       <c r="Z209" s="4"/>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A210" s="20">
-        <v>3031</v>
-      </c>
-      <c r="B210" s="18">
-        <v>3</v>
-      </c>
+      <c r="A210" s="20"/>
+      <c r="B210" s="18"/>
       <c r="C210" s="5"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="G210" s="8">
-        <v>1596.3536000000001</v>
-      </c>
-      <c r="H210" s="16">
-        <v>495024.09120000002</v>
-      </c>
+      <c r="E210" s="4"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="8"/>
+      <c r="H210" s="16"/>
       <c r="I210" s="16"/>
       <c r="J210" s="16"/>
       <c r="K210" s="5"/>
@@ -17979,26 +17694,14 @@
       <c r="Z210" s="4"/>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A211" s="20">
-        <v>3038</v>
-      </c>
-      <c r="B211" s="18">
-        <v>3</v>
-      </c>
+      <c r="A211" s="20"/>
+      <c r="B211" s="18"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
-      <c r="E211" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="G211" s="8">
-        <v>1596.3536000000001</v>
-      </c>
-      <c r="H211" s="16">
-        <v>526947.16320000007</v>
-      </c>
+      <c r="E211" s="4"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="8"/>
+      <c r="H211" s="16"/>
       <c r="I211" s="16"/>
       <c r="J211" s="16"/>
       <c r="K211" s="5"/>
@@ -18019,26 +17722,14 @@
       <c r="Z211" s="4"/>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A212" s="20">
-        <v>3049</v>
-      </c>
-      <c r="B212" s="18">
-        <v>3</v>
-      </c>
+      <c r="A212" s="20"/>
+      <c r="B212" s="18"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
-      <c r="E212" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="G212" s="8">
-        <v>1273.8763999999999</v>
-      </c>
-      <c r="H212" s="16">
-        <v>427236.09959999996</v>
-      </c>
+      <c r="E212" s="4"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="8"/>
+      <c r="H212" s="16"/>
       <c r="I212" s="16"/>
       <c r="J212" s="16"/>
       <c r="K212" s="5"/>
@@ -18059,26 +17750,14 @@
       <c r="Z212" s="4"/>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A213" s="20">
-        <v>3050</v>
-      </c>
-      <c r="B213" s="18">
-        <v>3</v>
-      </c>
+      <c r="A213" s="20"/>
+      <c r="B213" s="18"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
-      <c r="E213" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="G213" s="8">
-        <v>966.57079999999996</v>
-      </c>
-      <c r="H213" s="16">
-        <v>327044.36839999998</v>
-      </c>
+      <c r="E213" s="4"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="16"/>
       <c r="I213" s="16"/>
       <c r="J213" s="16"/>
       <c r="K213" s="5"/>
@@ -18099,26 +17778,14 @@
       <c r="Z213" s="4"/>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A214" s="20">
-        <v>3051</v>
-      </c>
-      <c r="B214" s="18">
-        <v>3</v>
-      </c>
+      <c r="A214" s="20"/>
+      <c r="B214" s="18"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
-      <c r="E214" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F214" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="G214" s="8">
-        <v>1357.1587999999999</v>
-      </c>
-      <c r="H214" s="16">
-        <v>385447.68719999999</v>
-      </c>
+      <c r="E214" s="4"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="8"/>
+      <c r="H214" s="16"/>
       <c r="I214" s="16"/>
       <c r="J214" s="16"/>
       <c r="K214" s="5"/>
@@ -18139,26 +17806,14 @@
       <c r="Z214" s="4"/>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A215" s="20">
-        <v>3056</v>
-      </c>
-      <c r="B215" s="18">
-        <v>3</v>
-      </c>
+      <c r="A215" s="20"/>
+      <c r="B215" s="18"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
-      <c r="E215" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F215" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="G215" s="8">
-        <v>1343.386</v>
-      </c>
-      <c r="H215" s="16">
-        <v>401894.81799999997</v>
-      </c>
+      <c r="E215" s="4"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="16"/>
       <c r="I215" s="16"/>
       <c r="J215" s="16"/>
       <c r="K215" s="5"/>
@@ -18179,26 +17834,14 @@
       <c r="Z215" s="4"/>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A216" s="20">
-        <v>3058</v>
-      </c>
-      <c r="B216" s="18">
-        <v>3</v>
-      </c>
+      <c r="A216" s="20"/>
+      <c r="B216" s="18"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
-      <c r="E216" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="G216" s="8">
-        <v>758.68760000000009</v>
-      </c>
-      <c r="H216" s="16">
-        <v>264275.78240000003</v>
-      </c>
+      <c r="E216" s="4"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="16"/>
       <c r="I216" s="16"/>
       <c r="J216" s="16"/>
       <c r="K216" s="5"/>
@@ -18219,26 +17862,14 @@
       <c r="Z216" s="4"/>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A217" s="20">
-        <v>4002</v>
-      </c>
-      <c r="B217" s="18">
-        <v>4</v>
-      </c>
+      <c r="A217" s="20"/>
+      <c r="B217" s="18"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
-      <c r="E217" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F217" s="6">
-        <v>2</v>
-      </c>
-      <c r="G217" s="8">
-        <v>789.24599999999987</v>
-      </c>
-      <c r="H217" s="16">
-        <v>231348.92799999996</v>
-      </c>
+      <c r="E217" s="4"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="16"/>
       <c r="I217" s="16"/>
       <c r="J217" s="16"/>
       <c r="K217" s="5"/>
@@ -18259,26 +17890,14 @@
       <c r="Z217" s="4"/>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A218" s="20">
-        <v>4009</v>
-      </c>
-      <c r="B218" s="18">
-        <v>4</v>
-      </c>
+      <c r="A218" s="20"/>
+      <c r="B218" s="18"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
-      <c r="E218" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F218" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="G218" s="8">
-        <v>789.24599999999987</v>
-      </c>
-      <c r="H218" s="16">
-        <v>264238.94999999995</v>
-      </c>
+      <c r="E218" s="4"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="8"/>
+      <c r="H218" s="16"/>
       <c r="I218" s="16"/>
       <c r="J218" s="16"/>
       <c r="K218" s="5"/>
@@ -18299,26 +17918,14 @@
       <c r="Z218" s="4"/>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A219" s="20">
-        <v>4013</v>
-      </c>
-      <c r="B219" s="18">
-        <v>4</v>
-      </c>
+      <c r="A219" s="20"/>
+      <c r="B219" s="18"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
-      <c r="E219" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F219" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="G219" s="8">
-        <v>733.18639999999994</v>
-      </c>
-      <c r="H219" s="16">
-        <v>217357.63279999999</v>
-      </c>
+      <c r="E219" s="4"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="8"/>
+      <c r="H219" s="16"/>
       <c r="I219" s="16"/>
       <c r="J219" s="16"/>
       <c r="K219" s="5"/>
@@ -18339,26 +17946,14 @@
       <c r="Z219" s="4"/>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A220" s="20">
-        <v>4014</v>
-      </c>
-      <c r="B220" s="18">
-        <v>4</v>
-      </c>
+      <c r="A220" s="20"/>
+      <c r="B220" s="18"/>
       <c r="C220" s="5"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F220" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="G220" s="8">
-        <v>1611.8480000000002</v>
-      </c>
-      <c r="H220" s="16">
-        <v>482404.31200000003</v>
-      </c>
+      <c r="E220" s="4"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="8"/>
+      <c r="H220" s="16"/>
       <c r="I220" s="16"/>
       <c r="J220" s="16"/>
       <c r="K220" s="5"/>
@@ -18379,26 +17974,14 @@
       <c r="Z220" s="4"/>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A221" s="20">
-        <v>4015</v>
-      </c>
-      <c r="B221" s="18">
-        <v>4</v>
-      </c>
+      <c r="A221" s="20"/>
+      <c r="B221" s="18"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
-      <c r="E221" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F221" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="G221" s="8">
-        <v>789.24599999999987</v>
-      </c>
-      <c r="H221" s="16">
-        <v>228937.89599999995</v>
-      </c>
+      <c r="E221" s="4"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="8"/>
+      <c r="H221" s="16"/>
       <c r="I221" s="16"/>
       <c r="J221" s="16"/>
       <c r="K221" s="5"/>
@@ -18419,26 +18002,14 @@
       <c r="Z221" s="4"/>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A222" s="20">
-        <v>4020</v>
-      </c>
-      <c r="B222" s="18">
-        <v>4</v>
-      </c>
+      <c r="A222" s="20"/>
+      <c r="B222" s="18"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
-      <c r="E222" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F222" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="G222" s="8">
-        <v>1611.8480000000002</v>
-      </c>
-      <c r="H222" s="16">
-        <v>498994.03200000006</v>
-      </c>
+      <c r="E222" s="4"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="8"/>
+      <c r="H222" s="16"/>
       <c r="I222" s="16"/>
       <c r="J222" s="16"/>
       <c r="K222" s="5"/>
@@ -18459,26 +18030,14 @@
       <c r="Z222" s="4"/>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A223" s="20">
-        <v>4021</v>
-      </c>
-      <c r="B223" s="18">
-        <v>4</v>
-      </c>
+      <c r="A223" s="20"/>
+      <c r="B223" s="18"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
-      <c r="E223" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="G223" s="8">
-        <v>789.24599999999987</v>
-      </c>
-      <c r="H223" s="16">
-        <v>256376.27599999995</v>
-      </c>
+      <c r="E223" s="4"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="16"/>
       <c r="I223" s="16"/>
       <c r="J223" s="16"/>
       <c r="K223" s="5"/>
@@ -18499,26 +18058,14 @@
       <c r="Z223" s="4"/>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A224" s="20">
-        <v>4023</v>
-      </c>
-      <c r="B224" s="18">
-        <v>4</v>
-      </c>
+      <c r="A224" s="20"/>
+      <c r="B224" s="18"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
-      <c r="E224" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="G224" s="8">
-        <v>794.51840000000004</v>
-      </c>
-      <c r="H224" s="16">
-        <v>255243.10879999999</v>
-      </c>
+      <c r="E224" s="4"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="8"/>
+      <c r="H224" s="16"/>
       <c r="I224" s="16"/>
       <c r="J224" s="16"/>
       <c r="K224" s="5"/>
@@ -18539,26 +18086,14 @@
       <c r="Z224" s="4"/>
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A225" s="20">
-        <v>4026</v>
-      </c>
-      <c r="B225" s="18">
-        <v>4</v>
-      </c>
+      <c r="A225" s="20"/>
+      <c r="B225" s="18"/>
       <c r="C225" s="5"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F225" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="G225" s="8">
-        <v>1611.8480000000002</v>
-      </c>
-      <c r="H225" s="16">
-        <v>506786.66400000005</v>
-      </c>
+      <c r="E225" s="4"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="8"/>
+      <c r="H225" s="16"/>
       <c r="I225" s="16"/>
       <c r="J225" s="16"/>
       <c r="K225" s="5"/>
@@ -18579,26 +18114,14 @@
       <c r="Z225" s="4"/>
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A226" s="20">
-        <v>4027</v>
-      </c>
-      <c r="B226" s="18">
-        <v>4</v>
-      </c>
+      <c r="A226" s="20"/>
+      <c r="B226" s="18"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
-      <c r="E226" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F226" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="G226" s="8">
-        <v>789.24599999999987</v>
-      </c>
-      <c r="H226" s="16">
-        <v>233172.48999999996</v>
-      </c>
+      <c r="E226" s="4"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="8"/>
+      <c r="H226" s="16"/>
       <c r="I226" s="16"/>
       <c r="J226" s="16"/>
       <c r="K226" s="5"/>
@@ -18619,26 +18142,14 @@
       <c r="Z226" s="4"/>
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A227" s="20">
-        <v>4029</v>
-      </c>
-      <c r="B227" s="18">
-        <v>4</v>
-      </c>
+      <c r="A227" s="20"/>
+      <c r="B227" s="18"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
-      <c r="E227" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F227" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="G227" s="8">
-        <v>794.51840000000004</v>
-      </c>
-      <c r="H227" s="16">
-        <v>233834.00480000002</v>
-      </c>
+      <c r="E227" s="4"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="8"/>
+      <c r="H227" s="16"/>
       <c r="I227" s="16"/>
       <c r="J227" s="16"/>
       <c r="K227" s="5"/>
@@ -18659,26 +18170,14 @@
       <c r="Z227" s="4"/>
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A228" s="20">
-        <v>4032</v>
-      </c>
-      <c r="B228" s="18">
-        <v>4</v>
-      </c>
+      <c r="A228" s="20"/>
+      <c r="B228" s="18"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
-      <c r="E228" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F228" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="G228" s="8">
-        <v>1611.8480000000002</v>
-      </c>
-      <c r="H228" s="16">
-        <v>523373.44800000009</v>
-      </c>
+      <c r="E228" s="4"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="8"/>
+      <c r="H228" s="16"/>
       <c r="I228" s="16"/>
       <c r="J228" s="16"/>
       <c r="K228" s="5"/>
@@ -18699,26 +18198,14 @@
       <c r="Z228" s="4"/>
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A229" s="20">
-        <v>4033</v>
-      </c>
-      <c r="B229" s="18">
-        <v>4</v>
-      </c>
+      <c r="A229" s="20"/>
+      <c r="B229" s="18"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
-      <c r="E229" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F229" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="G229" s="8">
-        <v>789.24599999999987</v>
-      </c>
-      <c r="H229" s="16">
-        <v>228872.91199999995</v>
-      </c>
+      <c r="E229" s="4"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="8"/>
+      <c r="H229" s="16"/>
       <c r="I229" s="16"/>
       <c r="J229" s="16"/>
       <c r="K229" s="5"/>
@@ -18739,26 +18226,14 @@
       <c r="Z229" s="4"/>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A230" s="20">
-        <v>4034</v>
-      </c>
-      <c r="B230" s="18">
-        <v>4</v>
-      </c>
+      <c r="A230" s="20"/>
+      <c r="B230" s="18"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
-      <c r="E230" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F230" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="G230" s="8">
-        <v>794.51840000000004</v>
-      </c>
-      <c r="H230" s="16">
-        <v>208655.6704</v>
-      </c>
+      <c r="E230" s="4"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="8"/>
+      <c r="H230" s="16"/>
       <c r="I230" s="16"/>
       <c r="J230" s="16"/>
       <c r="K230" s="5"/>
@@ -18779,26 +18254,14 @@
       <c r="Z230" s="4"/>
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A231" s="20">
-        <v>4036</v>
-      </c>
-      <c r="B231" s="18">
-        <v>4</v>
-      </c>
+      <c r="A231" s="20"/>
+      <c r="B231" s="18"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
-      <c r="E231" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F231" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="G231" s="8">
-        <v>1111.7231999999999</v>
-      </c>
-      <c r="H231" s="16">
-        <v>322952.55839999998</v>
-      </c>
+      <c r="E231" s="4"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="8"/>
+      <c r="H231" s="16"/>
       <c r="I231" s="16"/>
       <c r="J231" s="16"/>
       <c r="K231" s="5"/>
@@ -18819,26 +18282,14 @@
       <c r="Z231" s="4"/>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A232" s="20">
-        <v>4039</v>
-      </c>
-      <c r="B232" s="18">
-        <v>4</v>
-      </c>
+      <c r="A232" s="20"/>
+      <c r="B232" s="18"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
-      <c r="E232" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F232" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="G232" s="8">
-        <v>785.48</v>
-      </c>
-      <c r="H232" s="16">
-        <v>216826</v>
-      </c>
+      <c r="E232" s="4"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="8"/>
+      <c r="H232" s="16"/>
       <c r="I232" s="16"/>
       <c r="J232" s="16"/>
       <c r="K232" s="5"/>
@@ -18859,26 +18310,14 @@
       <c r="Z232" s="4"/>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A233" s="20">
-        <v>4044</v>
-      </c>
-      <c r="B233" s="18">
-        <v>4</v>
-      </c>
+      <c r="A233" s="20"/>
+      <c r="B233" s="18"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
-      <c r="E233" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F233" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="G233" s="8">
-        <v>1058.2459999999999</v>
-      </c>
-      <c r="H233" s="16">
-        <v>298730.40399999998</v>
-      </c>
+      <c r="E233" s="4"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="8"/>
+      <c r="H233" s="16"/>
       <c r="I233" s="16"/>
       <c r="J233" s="16"/>
       <c r="K233" s="5"/>
@@ -18899,26 +18338,14 @@
       <c r="Z233" s="4"/>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A234" s="20">
-        <v>4046</v>
-      </c>
-      <c r="B234" s="18">
-        <v>4</v>
-      </c>
+      <c r="A234" s="20"/>
+      <c r="B234" s="18"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
-      <c r="E234" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F234" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="G234" s="8">
-        <v>791.72079999999994</v>
-      </c>
-      <c r="H234" s="16">
-        <v>230495.00639999998</v>
-      </c>
+      <c r="E234" s="4"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="8"/>
+      <c r="H234" s="16"/>
       <c r="I234" s="16"/>
       <c r="J234" s="16"/>
       <c r="K234" s="5"/>
@@ -18939,26 +18366,14 @@
       <c r="Z234" s="4"/>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A235" s="20">
-        <v>4048</v>
-      </c>
-      <c r="B235" s="18">
-        <v>4</v>
-      </c>
+      <c r="A235" s="20"/>
+      <c r="B235" s="18"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
-      <c r="E235" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F235" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="G235" s="8">
-        <v>1068.5755999999999</v>
-      </c>
-      <c r="H235" s="16">
-        <v>346048.04079999996</v>
-      </c>
+      <c r="E235" s="4"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="8"/>
+      <c r="H235" s="16"/>
       <c r="I235" s="16"/>
       <c r="J235" s="16"/>
       <c r="K235" s="5"/>
@@ -18979,26 +18394,14 @@
       <c r="Z235" s="4"/>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A236" s="20">
-        <v>4049</v>
-      </c>
-      <c r="B236" s="18">
-        <v>4</v>
-      </c>
+      <c r="A236" s="20"/>
+      <c r="B236" s="18"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
-      <c r="E236" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F236" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="G236" s="8">
-        <v>1325.3091999999999</v>
-      </c>
-      <c r="H236" s="16">
-        <v>377043.5956</v>
-      </c>
+      <c r="E236" s="4"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="8"/>
+      <c r="H236" s="16"/>
       <c r="I236" s="16"/>
       <c r="J236" s="16"/>
       <c r="K236" s="5"/>
@@ -19019,26 +18422,14 @@
       <c r="Z236" s="4"/>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A237" s="20">
-        <v>5002</v>
-      </c>
-      <c r="B237" s="18">
-        <v>5</v>
-      </c>
+      <c r="A237" s="20"/>
+      <c r="B237" s="18"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
-      <c r="E237" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F237" s="6">
-        <v>2</v>
-      </c>
-      <c r="G237" s="8">
-        <v>1273.8763999999999</v>
-      </c>
-      <c r="H237" s="16">
-        <v>413761.70639999997</v>
-      </c>
+      <c r="E237" s="4"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="8"/>
+      <c r="H237" s="16"/>
       <c r="I237" s="16"/>
       <c r="J237" s="16"/>
       <c r="K237" s="5"/>
@@ -19059,26 +18450,14 @@
       <c r="Z237" s="4"/>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A238" s="20">
-        <v>5003</v>
-      </c>
-      <c r="B238" s="18">
-        <v>5</v>
-      </c>
+      <c r="A238" s="20"/>
+      <c r="B238" s="18"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
-      <c r="E238" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F238" s="6">
-        <v>3</v>
-      </c>
-      <c r="G238" s="8">
-        <v>798.49959999999987</v>
-      </c>
-      <c r="H238" s="16">
-        <v>212644.39479999998</v>
-      </c>
+      <c r="E238" s="4"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="8"/>
+      <c r="H238" s="16"/>
       <c r="I238" s="16"/>
       <c r="J238" s="16"/>
       <c r="K238" s="5"/>
@@ -19099,26 +18478,14 @@
       <c r="Z238" s="4"/>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A239" s="20">
-        <v>5004</v>
-      </c>
-      <c r="B239" s="18">
-        <v>5</v>
-      </c>
+      <c r="A239" s="20"/>
+      <c r="B239" s="18"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
-      <c r="E239" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F239" s="6">
-        <v>4</v>
-      </c>
-      <c r="G239" s="8">
-        <v>798.49959999999987</v>
-      </c>
-      <c r="H239" s="16">
-        <v>250415.38199999995</v>
-      </c>
+      <c r="E239" s="4"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="8"/>
+      <c r="H239" s="16"/>
       <c r="I239" s="16"/>
       <c r="J239" s="16"/>
       <c r="K239" s="5"/>
@@ -19139,26 +18506,14 @@
       <c r="Z239" s="4"/>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A240" s="20">
-        <v>5005</v>
-      </c>
-      <c r="B240" s="18">
-        <v>5</v>
-      </c>
+      <c r="A240" s="20"/>
+      <c r="B240" s="18"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
-      <c r="E240" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F240" s="6">
-        <v>5</v>
-      </c>
-      <c r="G240" s="8">
-        <v>798.49959999999987</v>
-      </c>
-      <c r="H240" s="16">
-        <v>219252.89199999996</v>
-      </c>
+      <c r="E240" s="4"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="8"/>
+      <c r="H240" s="16"/>
       <c r="I240" s="16"/>
       <c r="J240" s="16"/>
       <c r="K240" s="5"/>
@@ -19179,26 +18534,14 @@
       <c r="Z240" s="4"/>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A241" s="20">
-        <v>5006</v>
-      </c>
-      <c r="B241" s="18">
-        <v>5</v>
-      </c>
+      <c r="A241" s="20"/>
+      <c r="B241" s="18"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
-      <c r="E241" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F241" s="6">
-        <v>6</v>
-      </c>
-      <c r="G241" s="8">
-        <v>1058.2459999999999</v>
-      </c>
-      <c r="H241" s="16">
-        <v>264011.69799999997</v>
-      </c>
+      <c r="E241" s="4"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="8"/>
+      <c r="H241" s="16"/>
       <c r="I241" s="16"/>
       <c r="J241" s="16"/>
       <c r="K241" s="5"/>
@@ -19219,26 +18562,14 @@
       <c r="Z241" s="4"/>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A242" s="20">
-        <v>5007</v>
-      </c>
-      <c r="B242" s="18">
-        <v>5</v>
-      </c>
+      <c r="A242" s="20"/>
+      <c r="B242" s="18"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
-      <c r="E242" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F242" s="6">
-        <v>7</v>
-      </c>
-      <c r="G242" s="8">
-        <v>618.16200000000003</v>
-      </c>
-      <c r="H242" s="16">
-        <v>211406.86800000002</v>
-      </c>
+      <c r="E242" s="4"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="8"/>
+      <c r="H242" s="16"/>
       <c r="I242" s="16"/>
       <c r="J242" s="16"/>
       <c r="K242" s="5"/>
@@ -19259,26 +18590,14 @@
       <c r="Z242" s="4"/>
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A243" s="20">
-        <v>5008</v>
-      </c>
-      <c r="B243" s="18">
-        <v>5</v>
-      </c>
+      <c r="A243" s="20"/>
+      <c r="B243" s="18"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
-      <c r="E243" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F243" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="G243" s="8">
-        <v>1273.8763999999999</v>
-      </c>
-      <c r="H243" s="16">
-        <v>396330.29079999996</v>
-      </c>
+      <c r="E243" s="4"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="8"/>
+      <c r="H243" s="16"/>
       <c r="I243" s="16"/>
       <c r="J243" s="16"/>
       <c r="K243" s="5"/>
@@ -19299,26 +18618,14 @@
       <c r="Z243" s="4"/>
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A244" s="20">
-        <v>5009</v>
-      </c>
-      <c r="B244" s="18">
-        <v>5</v>
-      </c>
+      <c r="A244" s="20"/>
+      <c r="B244" s="18"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
-      <c r="E244" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F244" s="6">
-        <v>9</v>
-      </c>
-      <c r="G244" s="8">
-        <v>798.49959999999987</v>
-      </c>
-      <c r="H244" s="16">
-        <v>227072.87839999996</v>
-      </c>
+      <c r="E244" s="4"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="8"/>
+      <c r="H244" s="16"/>
       <c r="I244" s="16"/>
       <c r="J244" s="16"/>
       <c r="K244" s="5"/>
@@ -19339,26 +18646,14 @@
       <c r="Z244" s="4"/>
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A245" s="20">
-        <v>5010</v>
-      </c>
-      <c r="B245" s="18">
-        <v>5</v>
-      </c>
+      <c r="A245" s="20"/>
+      <c r="B245" s="18"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
-      <c r="E245" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F245" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="G245" s="8">
-        <v>798.49959999999987</v>
-      </c>
-      <c r="H245" s="16">
-        <v>276323.86559999996</v>
-      </c>
+      <c r="E245" s="4"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="8"/>
+      <c r="H245" s="16"/>
       <c r="I245" s="16"/>
       <c r="J245" s="16"/>
       <c r="K245" s="5"/>
@@ -19379,26 +18674,14 @@
       <c r="Z245" s="4"/>
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A246" s="20">
-        <v>5011</v>
-      </c>
-      <c r="B246" s="18">
-        <v>5</v>
-      </c>
+      <c r="A246" s="20"/>
+      <c r="B246" s="18"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
-      <c r="E246" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F246" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="G246" s="8">
-        <v>798.49959999999987</v>
-      </c>
-      <c r="H246" s="16">
-        <v>230943.37959999996</v>
-      </c>
+      <c r="E246" s="4"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="8"/>
+      <c r="H246" s="16"/>
       <c r="I246" s="16"/>
       <c r="J246" s="16"/>
       <c r="K246" s="5"/>
@@ -19419,26 +18702,14 @@
       <c r="Z246" s="4"/>
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A247" s="20">
-        <v>5012</v>
-      </c>
-      <c r="B247" s="18">
-        <v>5</v>
-      </c>
+      <c r="A247" s="20"/>
+      <c r="B247" s="18"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
-      <c r="E247" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F247" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="G247" s="8">
-        <v>1058.2459999999999</v>
-      </c>
-      <c r="H247" s="16">
-        <v>315382.11</v>
-      </c>
+      <c r="E247" s="4"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="8"/>
+      <c r="H247" s="16"/>
       <c r="I247" s="16"/>
       <c r="J247" s="16"/>
       <c r="K247" s="5"/>
@@ -19459,26 +18730,14 @@
       <c r="Z247" s="4"/>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A248" s="20">
-        <v>5014</v>
-      </c>
-      <c r="B248" s="18">
-        <v>5</v>
-      </c>
+      <c r="A248" s="20"/>
+      <c r="B248" s="18"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
-      <c r="E248" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F248" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="G248" s="8">
-        <v>1273.5536</v>
-      </c>
-      <c r="H248" s="16">
-        <v>372016.56160000002</v>
-      </c>
+      <c r="E248" s="4"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="8"/>
+      <c r="H248" s="16"/>
       <c r="I248" s="16"/>
       <c r="J248" s="16"/>
       <c r="K248" s="5"/>
@@ -19499,26 +18758,14 @@
       <c r="Z248" s="4"/>
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A249" s="20">
-        <v>5015</v>
-      </c>
-      <c r="B249" s="18">
-        <v>5</v>
-      </c>
+      <c r="A249" s="20"/>
+      <c r="B249" s="18"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
-      <c r="E249" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F249" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="G249" s="8">
-        <v>798.49959999999987</v>
-      </c>
-      <c r="H249" s="16">
-        <v>237680.87519999995</v>
-      </c>
+      <c r="E249" s="4"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="8"/>
+      <c r="H249" s="16"/>
       <c r="I249" s="16"/>
       <c r="J249" s="16"/>
       <c r="K249" s="5"/>
@@ -19539,26 +18786,14 @@
       <c r="Z249" s="4"/>
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A250" s="20">
-        <v>5016</v>
-      </c>
-      <c r="B250" s="18">
-        <v>5</v>
-      </c>
+      <c r="A250" s="20"/>
+      <c r="B250" s="18"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
-      <c r="E250" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F250" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="G250" s="8">
-        <v>798.49959999999987</v>
-      </c>
-      <c r="H250" s="16">
-        <v>234032.88399999996</v>
-      </c>
+      <c r="E250" s="4"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="8"/>
+      <c r="H250" s="16"/>
       <c r="I250" s="16"/>
       <c r="J250" s="16"/>
       <c r="K250" s="5"/>
@@ -19579,26 +18814,14 @@
       <c r="Z250" s="4"/>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A251" s="20">
-        <v>5017</v>
-      </c>
-      <c r="B251" s="18">
-        <v>5</v>
-      </c>
+      <c r="A251" s="20"/>
+      <c r="B251" s="18"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
-      <c r="E251" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="G251" s="8">
-        <v>798.28440000000001</v>
-      </c>
-      <c r="H251" s="16">
-        <v>273165.57680000004</v>
-      </c>
+      <c r="E251" s="4"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="16"/>
       <c r="I251" s="16"/>
       <c r="J251" s="16"/>
       <c r="K251" s="5"/>
@@ -19619,26 +18842,14 @@
       <c r="Z251" s="4"/>
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A252" s="20">
-        <v>5018</v>
-      </c>
-      <c r="B252" s="18">
-        <v>5</v>
-      </c>
+      <c r="A252" s="20"/>
+      <c r="B252" s="18"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
-      <c r="E252" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F252" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="G252" s="8">
-        <v>1057.9232</v>
-      </c>
-      <c r="H252" s="16">
-        <v>271227.49439999997</v>
-      </c>
+      <c r="E252" s="4"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="8"/>
+      <c r="H252" s="16"/>
       <c r="I252" s="16"/>
       <c r="J252" s="16"/>
       <c r="K252" s="5"/>
@@ -19659,26 +18870,14 @@
       <c r="Z252" s="4"/>
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A253" s="20">
-        <v>5020</v>
-      </c>
-      <c r="B253" s="18">
-        <v>5</v>
-      </c>
+      <c r="A253" s="20"/>
+      <c r="B253" s="18"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
-      <c r="E253" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="G253" s="8">
-        <v>1273.5536</v>
-      </c>
-      <c r="H253" s="16">
-        <v>349865.22239999997</v>
-      </c>
+      <c r="E253" s="4"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="8"/>
+      <c r="H253" s="16"/>
       <c r="I253" s="16"/>
       <c r="J253" s="16"/>
       <c r="K253" s="5"/>
@@ -19699,26 +18898,14 @@
       <c r="Z253" s="4"/>
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A254" s="20">
-        <v>5025</v>
-      </c>
-      <c r="B254" s="18">
-        <v>5</v>
-      </c>
+      <c r="A254" s="20"/>
+      <c r="B254" s="18"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
-      <c r="E254" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F254" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="G254" s="8">
-        <v>618.16200000000003</v>
-      </c>
-      <c r="H254" s="16">
-        <v>199730.734</v>
-      </c>
+      <c r="E254" s="4"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="8"/>
+      <c r="H254" s="16"/>
       <c r="I254" s="16"/>
       <c r="J254" s="16"/>
       <c r="K254" s="5"/>
@@ -19739,26 +18926,14 @@
       <c r="Z254" s="4"/>
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A255" s="20">
-        <v>5026</v>
-      </c>
-      <c r="B255" s="18">
-        <v>5</v>
-      </c>
+      <c r="A255" s="20"/>
+      <c r="B255" s="18"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
-      <c r="E255" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F255" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="G255" s="8">
-        <v>1273.5536</v>
-      </c>
-      <c r="H255" s="16">
-        <v>338482.45439999999</v>
-      </c>
+      <c r="E255" s="4"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="8"/>
+      <c r="H255" s="16"/>
       <c r="I255" s="16"/>
       <c r="J255" s="16"/>
       <c r="K255" s="5"/>
@@ -19779,26 +18954,14 @@
       <c r="Z255" s="4"/>
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A256" s="20">
-        <v>5030</v>
-      </c>
-      <c r="B256" s="18">
-        <v>5</v>
-      </c>
+      <c r="A256" s="20"/>
+      <c r="B256" s="18"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
-      <c r="E256" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F256" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="G256" s="8">
-        <v>1057.9232</v>
-      </c>
-      <c r="H256" s="16">
-        <v>351304.57759999996</v>
-      </c>
+      <c r="E256" s="4"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="8"/>
+      <c r="H256" s="16"/>
       <c r="I256" s="16"/>
       <c r="J256" s="16"/>
       <c r="K256" s="5"/>
@@ -19819,26 +18982,14 @@
       <c r="Z256" s="4"/>
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A257" s="20">
-        <v>5032</v>
-      </c>
-      <c r="B257" s="18">
-        <v>5</v>
-      </c>
+      <c r="A257" s="20"/>
+      <c r="B257" s="18"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
-      <c r="E257" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F257" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="G257" s="8">
-        <v>1273.5536</v>
-      </c>
-      <c r="H257" s="16">
-        <v>338472.13279999996</v>
-      </c>
+      <c r="E257" s="4"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="8"/>
+      <c r="H257" s="16"/>
       <c r="I257" s="16"/>
       <c r="J257" s="16"/>
       <c r="K257" s="5"/>
@@ -19859,26 +19010,14 @@
       <c r="Z257" s="4"/>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A258" s="20">
-        <v>5034</v>
-      </c>
-      <c r="B258" s="18">
-        <v>5</v>
-      </c>
+      <c r="A258" s="20"/>
+      <c r="B258" s="18"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
-      <c r="E258" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F258" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="G258" s="8">
-        <v>798.28440000000001</v>
-      </c>
-      <c r="H258" s="16">
-        <v>212916.35680000001</v>
-      </c>
+      <c r="E258" s="4"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="8"/>
+      <c r="H258" s="16"/>
       <c r="I258" s="16"/>
       <c r="J258" s="16"/>
       <c r="K258" s="5"/>
@@ -19899,26 +19038,14 @@
       <c r="Z258" s="4"/>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A259" s="20">
-        <v>5036</v>
-      </c>
-      <c r="B259" s="18">
-        <v>5</v>
-      </c>
+      <c r="A259" s="20"/>
+      <c r="B259" s="18"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
-      <c r="E259" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F259" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="G259" s="8">
-        <v>1057.9232</v>
-      </c>
-      <c r="H259" s="16">
-        <v>308660.80319999997</v>
-      </c>
+      <c r="E259" s="4"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="16"/>
       <c r="I259" s="16"/>
       <c r="J259" s="16"/>
       <c r="K259" s="5"/>
@@ -19939,26 +19066,14 @@
       <c r="Z259" s="4"/>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A260" s="20">
-        <v>5037</v>
-      </c>
-      <c r="B260" s="18">
-        <v>5</v>
-      </c>
+      <c r="A260" s="20"/>
+      <c r="B260" s="18"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
-      <c r="E260" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F260" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="G260" s="8">
-        <v>606.32600000000002</v>
-      </c>
-      <c r="H260" s="16">
-        <v>147343.69400000002</v>
-      </c>
+      <c r="E260" s="4"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="8"/>
+      <c r="H260" s="16"/>
       <c r="I260" s="16"/>
       <c r="J260" s="16"/>
       <c r="K260" s="5"/>
@@ -19979,26 +19094,14 @@
       <c r="Z260" s="4"/>
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A261" s="20">
-        <v>5038</v>
-      </c>
-      <c r="B261" s="18">
-        <v>5</v>
-      </c>
+      <c r="A261" s="20"/>
+      <c r="B261" s="18"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
-      <c r="E261" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F261" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="G261" s="8">
-        <v>1273.5536</v>
-      </c>
-      <c r="H261" s="16">
-        <v>448574.6704</v>
-      </c>
+      <c r="E261" s="4"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="8"/>
+      <c r="H261" s="16"/>
       <c r="I261" s="16"/>
       <c r="J261" s="16"/>
       <c r="K261" s="5"/>
@@ -20019,26 +19122,14 @@
       <c r="Z261" s="4"/>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A262" s="20">
-        <v>5041</v>
-      </c>
-      <c r="B262" s="18">
-        <v>5</v>
-      </c>
+      <c r="A262" s="20"/>
+      <c r="B262" s="18"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
-      <c r="E262" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F262" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="G262" s="8">
-        <v>798.28440000000001</v>
-      </c>
-      <c r="H262" s="16">
-        <v>255337.89800000002</v>
-      </c>
+      <c r="E262" s="4"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="8"/>
+      <c r="H262" s="16"/>
       <c r="I262" s="16"/>
       <c r="J262" s="16"/>
       <c r="K262" s="5"/>
@@ -20059,26 +19150,14 @@
       <c r="Z262" s="4"/>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A263" s="20">
-        <v>5043</v>
-      </c>
-      <c r="B263" s="18">
-        <v>5</v>
-      </c>
+      <c r="A263" s="20"/>
+      <c r="B263" s="18"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
-      <c r="E263" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F263" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="G263" s="8">
-        <v>598.5788</v>
-      </c>
-      <c r="H263" s="16">
-        <v>175773.58559999999</v>
-      </c>
+      <c r="E263" s="4"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="8"/>
+      <c r="H263" s="16"/>
       <c r="I263" s="16"/>
       <c r="J263" s="16"/>
       <c r="K263" s="5"/>
@@ -20099,26 +19178,14 @@
       <c r="Z263" s="4"/>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A264" s="20">
-        <v>5044</v>
-      </c>
-      <c r="B264" s="18">
-        <v>5</v>
-      </c>
+      <c r="A264" s="20"/>
+      <c r="B264" s="18"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
-      <c r="E264" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F264" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="G264" s="8">
-        <v>1238.5835999999999</v>
-      </c>
-      <c r="H264" s="16">
-        <v>322610.73919999995</v>
-      </c>
+      <c r="E264" s="4"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="8"/>
+      <c r="H264" s="16"/>
       <c r="I264" s="16"/>
       <c r="J264" s="16"/>
       <c r="K264" s="5"/>
@@ -20139,26 +19206,14 @@
       <c r="Z264" s="4"/>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A265" s="20">
-        <v>5047</v>
-      </c>
-      <c r="B265" s="18">
-        <v>5</v>
-      </c>
+      <c r="A265" s="20"/>
+      <c r="B265" s="18"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
-      <c r="E265" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F265" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="G265" s="8">
-        <v>794.51840000000004</v>
-      </c>
-      <c r="H265" s="16">
-        <v>279191.25599999999</v>
-      </c>
+      <c r="E265" s="4"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="8"/>
+      <c r="H265" s="16"/>
       <c r="I265" s="16"/>
       <c r="J265" s="16"/>
       <c r="K265" s="5"/>
@@ -20179,26 +19234,14 @@
       <c r="Z265" s="4"/>
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A266" s="20">
-        <v>5048</v>
-      </c>
-      <c r="B266" s="18">
-        <v>5</v>
-      </c>
+      <c r="A266" s="20"/>
+      <c r="B266" s="18"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
-      <c r="E266" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F266" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="G266" s="8">
-        <v>1013.2692</v>
-      </c>
-      <c r="H266" s="16">
-        <v>287996.52960000001</v>
-      </c>
+      <c r="E266" s="4"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="8"/>
+      <c r="H266" s="16"/>
       <c r="I266" s="16"/>
       <c r="J266" s="16"/>
       <c r="K266" s="5"/>
@@ -20219,26 +19262,14 @@
       <c r="Z266" s="4"/>
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A267" s="20">
-        <v>5050</v>
-      </c>
-      <c r="B267" s="18">
-        <v>5</v>
-      </c>
+      <c r="A267" s="20"/>
+      <c r="B267" s="18"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
-      <c r="E267" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F267" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="G267" s="8">
-        <v>1074.7087999999999</v>
-      </c>
-      <c r="H267" s="16">
-        <v>365868.77759999997</v>
-      </c>
+      <c r="E267" s="4"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="16"/>
       <c r="I267" s="16"/>
       <c r="J267" s="16"/>
       <c r="K267" s="5"/>
@@ -20259,26 +19290,14 @@
       <c r="Z267" s="4"/>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A268" s="20">
-        <v>5051</v>
-      </c>
-      <c r="B268" s="18">
-        <v>5</v>
-      </c>
+      <c r="A268" s="20"/>
+      <c r="B268" s="18"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
-      <c r="E268" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F268" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="G268" s="8">
-        <v>789.24599999999987</v>
-      </c>
-      <c r="H268" s="16">
-        <v>199216.40399999995</v>
-      </c>
+      <c r="E268" s="4"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="8"/>
+      <c r="H268" s="16"/>
       <c r="I268" s="16"/>
       <c r="J268" s="16"/>
       <c r="K268" s="5"/>
